--- a/linear_VTRF.xlsx
+++ b/linear_VTRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9A929F-E2FE-48BE-AABC-C7C66CD0B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE87EE2-CA75-4D64-8A7C-3F2E5C1554B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t>Total Loan Amount</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Booking Month</t>
   </si>
   <si>
-    <t>%As of Today X</t>
-  </si>
-  <si>
     <t>64.982.000,00</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>9,31%</t>
   </si>
   <si>
-    <t>8,30%</t>
-  </si>
-  <si>
     <t>77.536.000,00</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>11,13%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
     <t>112.215.000,00</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>8,32%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
     <t>111.911.000,00</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>14,72%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
     <t>218.686.227,00</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
     <t>229.378.077,00</t>
   </si>
   <si>
@@ -199,9 +181,6 @@
     <t>7,75%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
     <t>368.390.600,00</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
   </si>
   <si>
     <t>9,77%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
   </si>
   <si>
     <t>312.598.600,00</t>
@@ -768,7 +744,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,457 +780,427 @@
       <c r="I1" s="2">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>202101</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4">
         <v>202102</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>202103</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4">
         <v>202104</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4">
         <v>202105</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4">
         <v>202106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4">
         <v>202107</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4">
         <v>202108</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4">
         <v>202109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <v>202110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4">
         <v>202111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4">
         <v>202112</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4">
         <v>202201</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4">
         <v>202202</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>107</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/linear_VTRF.xlsx
+++ b/linear_VTRF.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE87EE2-CA75-4D64-8A7C-3F2E5C1554B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{164C8440-FD7F-45C1-838E-245A1C33B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="linear_VTRF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
-  <si>
-    <t>Total Loan Amount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Booking Month</t>
   </si>
   <si>
-    <t>64.982.000,00</t>
-  </si>
-  <si>
     <t>0,00%</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>9,31%</t>
   </si>
   <si>
-    <t>77.536.000,00</t>
-  </si>
-  <si>
     <t>9,35%</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>11,13%</t>
   </si>
   <si>
-    <t>112.215.000,00</t>
-  </si>
-  <si>
     <t>3,32%</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>8,32%</t>
   </si>
   <si>
-    <t>111.911.000,00</t>
-  </si>
-  <si>
     <t>0,02%</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>14,72%</t>
   </si>
   <si>
-    <t>218.686.227,00</t>
-  </si>
-  <si>
     <t>1,35%</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>229.378.077,00</t>
-  </si>
-  <si>
     <t>3,85%</t>
   </si>
   <si>
@@ -181,9 +160,6 @@
     <t>7,75%</t>
   </si>
   <si>
-    <t>368.390.600,00</t>
-  </si>
-  <si>
     <t>5,77%</t>
   </si>
   <si>
@@ -199,9 +175,6 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>312.598.600,00</t>
-  </si>
-  <si>
     <t>5,50%</t>
   </si>
   <si>
@@ -226,9 +199,6 @@
     <t>9,14%</t>
   </si>
   <si>
-    <t>149.148.100,00</t>
-  </si>
-  <si>
     <t>3,03%</t>
   </si>
   <si>
@@ -244,9 +214,6 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>245.151.600,00</t>
-  </si>
-  <si>
     <t>1,84%</t>
   </si>
   <si>
@@ -265,9 +232,6 @@
     <t>7,10%</t>
   </si>
   <si>
-    <t>242.807.900,00</t>
-  </si>
-  <si>
     <t>6,08%</t>
   </si>
   <si>
@@ -283,9 +247,6 @@
     <t>7,36%</t>
   </si>
   <si>
-    <t>307.014.200,00</t>
-  </si>
-  <si>
     <t>3,25%</t>
   </si>
   <si>
@@ -307,9 +268,6 @@
     <t>11,57%</t>
   </si>
   <si>
-    <t>356.478.300,00</t>
-  </si>
-  <si>
     <t>6,37%</t>
   </si>
   <si>
@@ -329,9 +287,6 @@
   </si>
   <si>
     <t>10,27%</t>
-  </si>
-  <si>
-    <t>330.305.900,00</t>
   </si>
   <si>
     <t>10,92%</t>
@@ -741,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B54582-0077-496F-B3B4-177A38B35C89}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,455 +707,410 @@
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
       <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>202101</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>202101</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>202102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
-        <v>202102</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>202103</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
-        <v>202103</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>202104</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4">
-        <v>202104</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>202105</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4">
-        <v>202105</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>202106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>202107</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4">
-        <v>202106</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>202108</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="4">
-        <v>202107</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>202109</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>202110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>202111</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>202112</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>202201</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>202202</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4">
-        <v>202108</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="4">
-        <v>202109</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="4">
-        <v>202110</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="4">
-        <v>202111</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="4">
-        <v>202112</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4">
-        <v>202201</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="4">
-        <v>202202</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/linear_VTRF.xlsx
+++ b/linear_VTRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164C8440-FD7F-45C1-838E-245A1C33B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{405CE078-36E3-4C21-BF7F-D059DD9706AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Booking Month</t>
   </si>
@@ -173,135 +173,6 @@
   </si>
   <si>
     <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,50%</t>
-  </si>
-  <si>
-    <t>4,10%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,20%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,60%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,10%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,40%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,90%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,70%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
   </si>
 </sst>
 </file>
@@ -699,7 +570,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,192 +795,80 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>202108</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>202109</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>202110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>202111</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>202112</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>202201</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>202202</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="5"/>
     </row>
   </sheetData>

--- a/linear_VTRF.xlsx
+++ b/linear_VTRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{405CE078-36E3-4C21-BF7F-D059DD9706AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F8359E-8C11-4890-8A47-578AA1E16A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3B69415-6897-42F1-A06F-FA1D07EB1FB7}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M7" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
